--- a/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
+++ b/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79604AF-9F55-4831-94F1-DD8F2E97428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B86A59-E62C-4AA4-90AB-7987788F8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,6 +360,50 @@
         <a:xfrm>
           <a:off x="19011900" y="4848225"/>
           <a:ext cx="5238095" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>646365</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>132586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Bilde 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E783F9-77FD-41CD-A4D7-B296DDA62046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="4305300"/>
+          <a:ext cx="10676190" cy="6114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,7 +742,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
+++ b/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B86A59-E62C-4AA4-90AB-7987788F8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1CCE22-86A5-6C44-AA1E-892642AD685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uprise Art" sheetId="2" r:id="rId1"/>
@@ -159,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE7F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,12 +241,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,8 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,15 +275,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Merknad" xfId="2" builtinId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Prosent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDE7F2"/>
+      <color rgb="FFEBF1DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -333,7 +369,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1580495</xdr:colOff>
+      <xdr:colOff>1580494</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>37606</xdr:rowOff>
     </xdr:to>
@@ -377,7 +413,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>646365</xdr:colOff>
+      <xdr:colOff>654832</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>132586</xdr:rowOff>
     </xdr:to>
@@ -738,526 +774,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>94</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="9">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18">
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19">
+        <f>(C2/(B2+C2))</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16">
         <v>8000000</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>1000000</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="16">
         <f>G2/2</f>
         <v>500000</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="7">
-        <f>B2*1.1*F2</f>
-        <v>827200000</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="I2" s="16">
+        <v>10</v>
+      </c>
+      <c r="J2" s="18">
+        <f>B2*F2*(1+E2/100)*(1+I2/100)</f>
+        <v>868560000.00000012</v>
+      </c>
+      <c r="K2" s="20">
         <f>J2/1024</f>
-        <v>807812.5</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18">
+        <v>848203.12500000012</v>
+      </c>
+      <c r="L2" s="21">
+        <f>B2*H2*(1+E2/100)*(1+I2/100)</f>
+        <v>54285000.000000007</v>
+      </c>
+      <c r="M2" s="16">
         <f>L2/1024</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17">
+        <v>53012.695312500007</v>
+      </c>
+      <c r="N2" s="22">
+        <f>O2*_xlfn.CEILING.MATH(K2/O2)</f>
+        <v>851968</v>
+      </c>
+      <c r="O2" s="23">
+        <f>IF(2^_xlfn.CEILING.MATH(LOG(M2,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M2,2),1))</f>
+        <v>65536</v>
+      </c>
+      <c r="P2" s="23">
         <f>O2/1024</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>78</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18">
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <f>(C3/(B3+C3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
         <f>F10*5</f>
         <v>162000</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <f>G10*5</f>
         <v>2500</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H11" si="0">G3/2</f>
         <v>1250</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:J11" si="1">B3*1.1*F3</f>
+      <c r="I3" s="17">
+        <v>10</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J11" si="1">B3*F3*(1+E3/100)*(1+I3/100)</f>
         <v>13899600.000000002</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K11" si="2">J3/1024</f>
         <v>13573.828125000002</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="18">
+      <c r="L3" s="21">
+        <f>B3*H3*(1+E3/100)*(1+I3/100)</f>
+        <v>107250.00000000001</v>
+      </c>
+      <c r="M3" s="16">
         <f t="shared" ref="M3:M11" si="3">L3/1024</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:P11" si="4">O3/1024</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+        <v>104.73632812500001</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" ref="N3:N11" si="4">O3*_xlfn.CEILING.MATH(K3/O3)</f>
+        <v>13696</v>
+      </c>
+      <c r="O3" s="23">
+        <f>IF(2^_xlfn.CEILING.MATH(LOG(M3,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M3,2),1))</f>
+        <v>128</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P11" si="5">O3/1024</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>40</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9">
-        <v>10</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" ref="D4:D11" si="6">(C4/(B4+C4))</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
         <f>F11*4</f>
         <v>640000000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <f>G11*4</f>
         <v>464000000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>232000000</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="7">
+      <c r="I4" s="16">
+        <v>10</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="1"/>
-        <v>28160000000</v>
-      </c>
-      <c r="K4" s="8">
+        <v>29568000000.000004</v>
+      </c>
+      <c r="K4" s="20">
         <f t="shared" si="2"/>
-        <v>27500000</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18">
+        <v>28875000.000000004</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" ref="L4:L11" si="7">B4*H4*(1+E4/100)*(1+I4/100)</f>
+        <v>10718400000</v>
+      </c>
+      <c r="M4" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17">
+        <v>10467187.5</v>
+      </c>
+      <c r="N4" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+        <v>33554432</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" ref="O4:O11" si="8">IF(2^_xlfn.CEILING.MATH(LOG(M4,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M4,2),1))</f>
+        <v>16777216</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>25</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9">
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="18"/>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+        <f>B5*F5*(1+E5/100)*(1+I5/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="18">
+      <c r="L5" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17">
+      <c r="N5" s="22" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>37</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="9">
-        <v>10</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
         <f>F10*8</f>
         <v>259200</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <f>G10*8</f>
         <v>4000</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="7">
+      <c r="I6" s="16">
+        <v>10</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>10549440</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="20">
         <f t="shared" si="2"/>
         <v>10302.1875</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18">
+      <c r="L6" s="21">
+        <f t="shared" si="7"/>
+        <v>81400</v>
+      </c>
+      <c r="M6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+        <v>79.4921875</v>
+      </c>
+      <c r="N6" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+        <v>10368</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>29</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="9">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="16">
         <f>F2*2</f>
         <v>16000000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <f>G2*2</f>
         <v>2000000</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="7">
+      <c r="I7" s="16">
+        <v>10</v>
+      </c>
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
-        <v>510400000.00000006</v>
-      </c>
-      <c r="K7" s="8">
+        <v>535920000.00000006</v>
+      </c>
+      <c r="K7" s="20">
         <f t="shared" si="2"/>
-        <v>498437.50000000006</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="18">
+        <v>523359.37500000006</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="7"/>
+        <v>33495000.000000004</v>
+      </c>
+      <c r="M7" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17">
+        <v>32709.960937500004</v>
+      </c>
+      <c r="N7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+        <v>524288</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="8"/>
+        <v>32768</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>180</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="9">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18">
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
         <f>F10*3</f>
         <v>97200</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <f>G9*3</f>
         <v>30</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="7">
+      <c r="I8" s="16">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18">
         <f t="shared" si="1"/>
-        <v>19245600.000000004</v>
-      </c>
-      <c r="K8" s="8">
+        <v>19245600</v>
+      </c>
+      <c r="K8" s="20">
         <f t="shared" si="2"/>
-        <v>18794.531250000004</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18">
+        <v>18794.53125</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="7"/>
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="M8" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+        <v>2.9003906250000004</v>
+      </c>
+      <c r="N8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+        <v>18816</v>
+      </c>
+      <c r="O8" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>135</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9">
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>648</v>
+      </c>
+      <c r="G9" s="16">
         <v>10</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
-        <v>648</v>
-      </c>
-      <c r="G9" s="18">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="7">
+      <c r="I9" s="16">
+        <v>10</v>
+      </c>
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
-        <v>96228</v>
-      </c>
-      <c r="K9" s="8">
+        <v>96228.000000000015</v>
+      </c>
+      <c r="K9" s="20">
         <f t="shared" si="2"/>
-        <v>93.97265625</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="18">
+        <v>93.972656250000014</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="7"/>
+        <v>742.50000000000011</v>
+      </c>
+      <c r="M9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17">
+        <v>0.72509765625000011</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>138</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
         <f>F9*50</f>
         <v>32400</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <f>50*G9</f>
         <v>500</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="7">
+      <c r="I10" s="16">
+        <v>10</v>
+      </c>
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>4918320</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="20">
         <f t="shared" si="2"/>
         <v>4803.046875</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="18">
+      <c r="L10" s="21">
+        <f t="shared" si="7"/>
+        <v>37950</v>
+      </c>
+      <c r="M10" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17">
+        <v>37.060546875</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+        <v>4864</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>77</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="9">
+      <c r="C11" s="15">
+        <v>8</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="6"/>
+        <v>9.4117647058823528E-2</v>
+      </c>
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f>F2*20</f>
         <v>160000000</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <f>(1000000+F2*0.6)*20</f>
         <v>116000000</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>58000000</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="7">
+      <c r="I11" s="16">
+        <v>10</v>
+      </c>
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
-        <v>13552000000</v>
-      </c>
-      <c r="K11" s="8">
+        <v>14907200000.000004</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="2"/>
-        <v>13234375</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18">
+        <v>14557812.500000004</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="7"/>
+        <v>5403860000</v>
+      </c>
+      <c r="M11" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17">
+        <v>5277207.03125</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16777216</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="8"/>
+        <v>8388608</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="5"/>
@@ -1267,7 +1463,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="K13" s="2"/>
@@ -1275,20 +1471,20 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="6"/>
@@ -1298,7 +1494,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="K16" s="2"/>
@@ -1306,7 +1502,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="K17" s="2"/>
@@ -1314,7 +1510,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="K18" s="2"/>
@@ -1322,82 +1518,82 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="M19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>

--- a/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
+++ b/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1CCE22-86A5-6C44-AA1E-892642AD685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231FA82-95B2-4DE6-BFA7-FE9365B6E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="450" windowWidth="30150" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uprise Art" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Table</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>NEXT extent size (MB)</t>
+  </si>
+  <si>
+    <t>Size for one year</t>
+  </si>
+  <si>
+    <t>Tablespace</t>
+  </si>
+  <si>
+    <t>BCYCLE64K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -202,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,6 +252,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -247,7 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -288,6 +311,9 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -318,94 +344,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>208895</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bilde 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6B1E8B-7980-4F83-902A-DF79AAA6C499}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24374475" y="4895850"/>
-          <a:ext cx="5238095" cy="3895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1580494</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>37606</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bilde 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3217848C-9642-4D90-97E3-F96FBAA6654C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19011900" y="4848225"/>
-          <a:ext cx="5238095" cy="3952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -431,7 +369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -440,6 +378,50 @@
         <a:xfrm>
           <a:off x="8134350" y="4305300"/>
           <a:ext cx="10676190" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>940002</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>387789</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Bilde 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FFE3A9-7CF0-40A0-8CE2-36BA263F335C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19088790" y="4428048"/>
+          <a:ext cx="9500326" cy="2028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -772,38 +754,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -852,8 +835,14 @@
       <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -911,8 +900,15 @@
         <f>O2/1024</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <f>O2+(2*P2)</f>
+        <v>65664</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -972,8 +968,12 @@
         <f t="shared" ref="P3:P11" si="5">O3/1024</f>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <f>O3+(2*P3)</f>
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -1033,8 +1033,12 @@
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <f>O4+(2*P4)</f>
+        <v>16809984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1088,8 +1092,12 @@
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="e">
+        <f>O5+(2*P5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1149,8 +1157,12 @@
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <f>O6+(2*P6)</f>
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>24</v>
       </c>
@@ -1210,8 +1222,12 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f>O7+(2*P7)</f>
+        <v>32832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
@@ -1229,8 +1245,8 @@
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>F10*3</f>
-        <v>97200</v>
+        <f>F9*3</f>
+        <v>1944</v>
       </c>
       <c r="G8" s="16">
         <f>G9*3</f>
@@ -1245,11 +1261,11 @@
       </c>
       <c r="J8" s="18">
         <f t="shared" si="1"/>
-        <v>19245600</v>
+        <v>384912.00000000006</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" si="2"/>
-        <v>18794.53125</v>
+        <v>375.89062500000006</v>
       </c>
       <c r="L8" s="21">
         <f t="shared" si="7"/>
@@ -1261,7 +1277,7 @@
       </c>
       <c r="N8" s="22">
         <f t="shared" si="4"/>
-        <v>18816</v>
+        <v>384</v>
       </c>
       <c r="O8" s="24" t="str">
         <f t="shared" si="8"/>
@@ -1271,8 +1287,12 @@
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <f>O8+(2*P8)</f>
+        <v>64.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -1330,8 +1350,12 @@
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <f>O9+(2*P9)</f>
+        <v>64.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
@@ -1391,8 +1415,12 @@
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <f>O10+(2*P10)</f>
+        <v>64.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
@@ -1452,8 +1480,12 @@
         <f t="shared" si="5"/>
         <v>8192</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <f>O11+(2*P11)</f>
+        <v>8404992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="5"/>
@@ -1463,7 +1495,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="K13" s="2"/>
@@ -1471,13 +1503,13 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1526,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="K16" s="2"/>
@@ -1502,7 +1534,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="K17" s="2"/>
@@ -1510,7 +1542,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="K18" s="2"/>
@@ -1518,84 +1550,89 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="M19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
+++ b/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231FA82-95B2-4DE6-BFA7-FE9365B6E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AF1C2-23FC-406D-B705-DDC7C613AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="450" windowWidth="30150" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -278,7 +278,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,10 +309,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -351,7 +352,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>654832</xdr:colOff>
+      <xdr:colOff>566908</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>132586</xdr:rowOff>
     </xdr:to>
@@ -395,7 +396,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>387789</xdr:colOff>
+      <xdr:colOff>387790</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>170119</xdr:rowOff>
     </xdr:to>
@@ -757,10 +758,10 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +774,7 @@
     <col min="6" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
@@ -787,292 +788,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>94</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <f>(C2/(B2+C2))</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>8000000</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>1000000</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>G2/2</f>
         <v>500000</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>10</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <f>B2*F2*(1+E2/100)*(1+I2/100)</f>
         <v>868560000.00000012</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <f>J2/1024</f>
         <v>848203.12500000012</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <f>B2*H2*(1+E2/100)*(1+I2/100)</f>
         <v>54285000.000000007</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <f>L2/1024</f>
         <v>53012.695312500007</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <f>O2*_xlfn.CEILING.MATH(K2/O2)</f>
         <v>851968</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <f>IF(2^_xlfn.CEILING.MATH(LOG(M2,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M2,2),1))</f>
         <v>65536</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <f>O2/1024</f>
         <v>64</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="22">
         <f>O2+(2*P2)</f>
         <v>65664</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>78</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
         <f>(C3/(B3+C3))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
         <f>F10*5</f>
         <v>162000</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>G10*5</f>
         <v>2500</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H11" si="0">G3/2</f>
         <v>1250</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>10</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <f t="shared" ref="J3:J11" si="1">B3*F3*(1+E3/100)*(1+I3/100)</f>
         <v>13899600.000000002</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <f t="shared" ref="K3:K11" si="2">J3/1024</f>
         <v>13573.828125000002</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <f>B3*H3*(1+E3/100)*(1+I3/100)</f>
         <v>107250.00000000001</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <f t="shared" ref="M3:M11" si="3">L3/1024</f>
         <v>104.73632812500001</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <f t="shared" ref="N3:N11" si="4">O3*_xlfn.CEILING.MATH(K3/O3)</f>
         <v>13696</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <f>IF(2^_xlfn.CEILING.MATH(LOG(M3,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M3,2),1))</f>
         <v>128</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <f t="shared" ref="P3:P11" si="5">O3/1024</f>
         <v>0.125</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="22">
         <f>O3+(2*P3)</f>
         <v>128.25</v>
       </c>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>40</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:D11" si="6">(C4/(B4+C4))</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>F11*4</f>
         <v>640000000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <f>G11*4</f>
         <v>464000000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>232000000</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>10</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <f t="shared" si="1"/>
         <v>29568000000.000004</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f t="shared" si="2"/>
         <v>28875000.000000004</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <f t="shared" ref="L4:L11" si="7">B4*H4*(1+E4/100)*(1+I4/100)</f>
         <v>10718400000</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
         <v>10467187.5</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <f t="shared" si="4"/>
         <v>33554432</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="22">
         <f t="shared" ref="O4:O11" si="8">IF(2^_xlfn.CEILING.MATH(LOG(M4,2),1) &lt; 64, "64", 2^_xlfn.CEILING.MATH(LOG(M4,2),1))</f>
         <v>16777216</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="22">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="22">
         <f>O4+(2*P4)</f>
         <v>16809984</v>
       </c>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>25</v>
       </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="28">
         <f>B5*F5*(1+E5/100)*(1+I5/100)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1080,410 +1083,417 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="22" t="e">
+      <c r="N5" s="21" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="O5" s="23" t="e">
+      <c r="O5" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="P5" s="23" t="e">
+      <c r="P5" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" t="e">
+      <c r="Q5" s="22" t="e">
         <f>O5+(2*P5)</f>
         <v>#NUM!</v>
       </c>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>37</v>
       </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
         <f>F10*8</f>
         <v>259200</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>G10*8</f>
         <v>4000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>10</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f t="shared" si="1"/>
         <v>10549440</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f t="shared" si="2"/>
         <v>10302.1875</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f t="shared" si="7"/>
         <v>81400</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
         <v>79.4921875</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <f t="shared" si="4"/>
         <v>10368</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="22">
         <f>O6+(2*P6)</f>
         <v>128.25</v>
       </c>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>29</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f t="shared" si="6"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>F2*2</f>
         <v>16000000</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f>G2*2</f>
         <v>2000000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>10</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f t="shared" si="1"/>
         <v>535920000.00000006</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f t="shared" si="2"/>
         <v>523359.37500000006</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f t="shared" si="7"/>
         <v>33495000.000000004</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <f t="shared" si="3"/>
         <v>32709.960937500004</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <f t="shared" si="4"/>
         <v>524288</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <f t="shared" si="8"/>
         <v>32768</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="22">
         <f>O7+(2*P7)</f>
         <v>32832</v>
       </c>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>180</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
         <f>F9*3</f>
         <v>1944</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f>G9*3</f>
         <v>30</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>10</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>384912.00000000006</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="2"/>
         <v>375.89062500000006</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f t="shared" si="7"/>
         <v>2970.0000000000005</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
         <v>2.9003906250000004</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="O8" s="24" t="str">
+      <c r="O8" s="23" t="str">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="22">
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="22">
         <f>O8+(2*P8)</f>
         <v>64.125</v>
       </c>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>135</v>
       </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
         <v>648</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>10</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>10</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
         <v>96228.000000000015</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f t="shared" si="2"/>
         <v>93.972656250000014</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <f t="shared" si="7"/>
         <v>742.50000000000011</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" si="3"/>
         <v>0.72509765625000011</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="O9" s="24" t="str">
+      <c r="O9" s="23" t="str">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="22">
         <f>O9+(2*P9)</f>
         <v>64.125</v>
       </c>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>138</v>
       </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
         <f>F9*50</f>
         <v>32400</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <f>50*G9</f>
         <v>500</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>10</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f t="shared" si="1"/>
         <v>4918320</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f t="shared" si="2"/>
         <v>4803.046875</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <f t="shared" si="7"/>
         <v>37950</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f t="shared" si="3"/>
         <v>37.060546875</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f t="shared" si="4"/>
         <v>4864</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="22">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="22">
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="22">
         <f>O10+(2*P10)</f>
         <v>64.125</v>
       </c>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>77</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f t="shared" si="6"/>
         <v>9.4117647058823528E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f>F2*20</f>
         <v>160000000</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f>(1000000+F2*0.6)*20</f>
         <v>116000000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>58000000</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>10</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
         <v>14907200000.000004</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <f t="shared" si="2"/>
         <v>14557812.500000004</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <f t="shared" si="7"/>
         <v>5403860000</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f t="shared" si="3"/>
         <v>5277207.03125</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f t="shared" si="4"/>
         <v>16777216</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="22">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="22">
         <f t="shared" si="5"/>
         <v>8192</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="22">
         <f>O11+(2*P11)</f>
         <v>8404992</v>
       </c>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
@@ -1510,13 +1520,13 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="6"/>

--- a/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
+++ b/Oracle/Assignment 4/IS-309 A4 Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AF1C2-23FC-406D-B705-DDC7C613AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C28995-AE11-4F9B-B5D2-925710DEFD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="450" windowWidth="30150" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
